--- a/Instances/10_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c2.xlsx
+++ b/Instances/10_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c2.xlsx
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -11346,13 +11346,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
         <v>2.6555</v>
       </c>
       <c r="E2" t="n">
-        <v>4.06044</v>
+        <v>9.474360000000001</v>
       </c>
       <c r="F2" t="n">
         <v>10.622</v>
@@ -11380,13 +11380,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>2.791476</v>
       </c>
       <c r="E3" t="n">
-        <v>6.500448</v>
+        <v>4.875336000000001</v>
       </c>
       <c r="F3" t="n">
         <v>11.165904</v>
@@ -11414,13 +11414,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
         <v>2.667148</v>
       </c>
       <c r="E4" t="n">
-        <v>6.8834</v>
+        <v>12.39012</v>
       </c>
       <c r="F4" t="n">
         <v>10.668592</v>
@@ -11448,13 +11448,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
         <v>2.376052</v>
       </c>
       <c r="E5" t="n">
-        <v>1.605264</v>
+        <v>14.447376</v>
       </c>
       <c r="F5" t="n">
         <v>9.504208000000002</v>
@@ -11482,13 +11482,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>2.405972</v>
       </c>
       <c r="E6" t="n">
-        <v>9.988944000000002</v>
+        <v>3.329648000000001</v>
       </c>
       <c r="F6" t="n">
         <v>9.623888000000001</v>
@@ -11550,13 +11550,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
         <v>2.027016</v>
       </c>
       <c r="E8" t="n">
-        <v>2.899848</v>
+        <v>7.732928</v>
       </c>
       <c r="F8" t="n">
         <v>8.108064000000001</v>
@@ -11590,7 +11590,7 @@
         <v>1.671592</v>
       </c>
       <c r="E9" t="n">
-        <v>3.176448</v>
+        <v>4.764672</v>
       </c>
       <c r="F9" t="n">
         <v>6.686368000000001</v>
@@ -11618,13 +11618,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
         <v>2.04552</v>
       </c>
       <c r="E10" t="n">
-        <v>6.021744</v>
+        <v>5.018120000000001</v>
       </c>
       <c r="F10" t="n">
         <v>8.182080000000001</v>
@@ -11658,7 +11658,7 @@
         <v>2.027696</v>
       </c>
       <c r="E11" t="n">
-        <v>6.792576</v>
+        <v>12.453056</v>
       </c>
       <c r="F11" t="n">
         <v>8.110784000000001</v>
@@ -11686,13 +11686,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
         <v>0.92226</v>
       </c>
       <c r="E12" t="n">
-        <v>0.65364</v>
+        <v>3.2682</v>
       </c>
       <c r="F12" t="n">
         <v>3.68904</v>
@@ -11720,13 +11720,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>2.160632</v>
       </c>
       <c r="E13" t="n">
-        <v>4.192416</v>
+        <v>9.782304</v>
       </c>
       <c r="F13" t="n">
         <v>8.642528</v>
@@ -11754,13 +11754,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
         <v>0.82206</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>4.074695999999999</v>
       </c>
       <c r="F14" t="n">
         <v>3.28824</v>
@@ -11794,7 +11794,7 @@
         <v>0.001876</v>
       </c>
       <c r="E15" t="n">
-        <v>0.011256</v>
+        <v>0.026264</v>
       </c>
       <c r="F15" t="n">
         <v>0.007504000000000001</v>
@@ -11828,7 +11828,7 @@
         <v>0.002036</v>
       </c>
       <c r="E16" t="n">
-        <v>0.016288</v>
+        <v>0.012216</v>
       </c>
       <c r="F16" t="n">
         <v>0.008144</v>
@@ -11862,7 +11862,7 @@
         <v>0.001924</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01924</v>
+        <v>0.034632</v>
       </c>
       <c r="F17" t="n">
         <v>0.007696</v>
@@ -11896,7 +11896,7 @@
         <v>0.00186</v>
       </c>
       <c r="E18" t="n">
-        <v>0.003720000000000001</v>
+        <v>0.03348</v>
       </c>
       <c r="F18" t="n">
         <v>0.007440000000000001</v>
@@ -11930,7 +11930,7 @@
         <v>0.002</v>
       </c>
       <c r="E19" t="n">
-        <v>0.024</v>
+        <v>0.008</v>
       </c>
       <c r="F19" t="n">
         <v>0.008</v>
@@ -12066,7 +12066,7 @@
         <v>0.010608</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4667520000000001</v>
+        <v>0.7001280000000001</v>
       </c>
       <c r="F23" t="n">
         <v>0.042432</v>
@@ -12100,7 +12100,7 @@
         <v>0.0016</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0704</v>
+        <v>0.1056</v>
       </c>
       <c r="F24" t="n">
         <v>0.0064</v>
@@ -12134,7 +12134,7 @@
         <v>0.040232</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9655680000000001</v>
+        <v>1.528816</v>
       </c>
       <c r="F25" t="n">
         <v>0.160928</v>
@@ -12168,7 +12168,7 @@
         <v>0.002956</v>
       </c>
       <c r="E26" t="n">
-        <v>0.130064</v>
+        <v>0.195096</v>
       </c>
       <c r="F26" t="n">
         <v>0.011824</v>
@@ -12202,7 +12202,7 @@
         <v>0.004736</v>
       </c>
       <c r="E27" t="n">
-        <v>0.208384</v>
+        <v>0.312576</v>
       </c>
       <c r="F27" t="n">
         <v>0.018944</v>
@@ -12236,7 +12236,7 @@
         <v>0.009300000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>0.186</v>
+        <v>0.2604</v>
       </c>
       <c r="F28" t="n">
         <v>0.0372</v>
@@ -12270,7 +12270,7 @@
         <v>0.003947999999999997</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1737119999999999</v>
+        <v>0.2605679999999998</v>
       </c>
       <c r="F29" t="n">
         <v>0.01579199999999999</v>
@@ -12304,7 +12304,7 @@
         <v>0.04213600000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>1.853984</v>
+        <v>2.780976</v>
       </c>
       <c r="F30" t="n">
         <v>0.168544</v>
@@ -12338,7 +12338,7 @@
         <v>0.006528000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>0.287232</v>
+        <v>0.4308480000000001</v>
       </c>
       <c r="F31" t="n">
         <v>0.026112</v>
@@ -12372,7 +12372,7 @@
         <v>0.008276</v>
       </c>
       <c r="E32" t="n">
-        <v>0.364144</v>
+        <v>0.546216</v>
       </c>
       <c r="F32" t="n">
         <v>0.033104</v>
@@ -12406,7 +12406,7 @@
         <v>0.00472</v>
       </c>
       <c r="E33" t="n">
-        <v>0.20768</v>
+        <v>0.31152</v>
       </c>
       <c r="F33" t="n">
         <v>0.01888</v>
@@ -12440,7 +12440,7 @@
         <v>0.494448</v>
       </c>
       <c r="E34" t="n">
-        <v>21.755712</v>
+        <v>32.633568</v>
       </c>
       <c r="F34" t="n">
         <v>1.977792</v>
@@ -12474,7 +12474,7 @@
         <v>0.407308</v>
       </c>
       <c r="E35" t="n">
-        <v>8.14616</v>
+        <v>11.404624</v>
       </c>
       <c r="F35" t="n">
         <v>1.629232</v>
@@ -12508,7 +12508,7 @@
         <v>0.003308</v>
       </c>
       <c r="E36" t="n">
-        <v>0.145552</v>
+        <v>0.218328</v>
       </c>
       <c r="F36" t="n">
         <v>0.013232</v>
@@ -12542,7 +12542,7 @@
         <v>0.006544</v>
       </c>
       <c r="E37" t="n">
-        <v>0.13088</v>
+        <v>0.183232</v>
       </c>
       <c r="F37" t="n">
         <v>0.026176</v>
@@ -12576,7 +12576,7 @@
         <v>0.222612</v>
       </c>
       <c r="E38" t="n">
-        <v>9.794928000000001</v>
+        <v>14.692392</v>
       </c>
       <c r="F38" t="n">
         <v>0.890448</v>
@@ -12610,7 +12610,7 @@
         <v>0.294432</v>
       </c>
       <c r="E39" t="n">
-        <v>12.955008</v>
+        <v>19.432512</v>
       </c>
       <c r="F39" t="n">
         <v>1.177728</v>
@@ -12644,7 +12644,7 @@
         <v>0.010372</v>
       </c>
       <c r="E40" t="n">
-        <v>0.145208</v>
+        <v>0.228184</v>
       </c>
       <c r="F40" t="n">
         <v>0.041488</v>
@@ -12678,7 +12678,7 @@
         <v>0.0111</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4884</v>
+        <v>0.7326</v>
       </c>
       <c r="F41" t="n">
         <v>0.0444</v>
@@ -12712,7 +12712,7 @@
         <v>0.001852</v>
       </c>
       <c r="E42" t="n">
-        <v>0.081488</v>
+        <v>0.122232</v>
       </c>
       <c r="F42" t="n">
         <v>0.007408000000000001</v>
@@ -12746,7 +12746,7 @@
         <v>0.001936</v>
       </c>
       <c r="E43" t="n">
-        <v>0.085184</v>
+        <v>0.127776</v>
       </c>
       <c r="F43" t="n">
         <v>0.007744</v>
@@ -12780,7 +12780,7 @@
         <v>0.009679999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>0.13552</v>
+        <v>0.21296</v>
       </c>
       <c r="F44" t="n">
         <v>0.03872</v>
@@ -12814,7 +12814,7 @@
         <v>0.783636</v>
       </c>
       <c r="E45" t="n">
-        <v>23.50908</v>
+        <v>34.479984</v>
       </c>
       <c r="F45" t="n">
         <v>3.134544</v>
@@ -12848,7 +12848,7 @@
         <v>0.026152</v>
       </c>
       <c r="E46" t="n">
-        <v>0.627648</v>
+        <v>0.9937759999999999</v>
       </c>
       <c r="F46" t="n">
         <v>0.104608</v>
@@ -12882,7 +12882,7 @@
         <v>0.0098</v>
       </c>
       <c r="E47" t="n">
-        <v>0.196</v>
+        <v>0.2744</v>
       </c>
       <c r="F47" t="n">
         <v>0.0392</v>
@@ -12916,7 +12916,7 @@
         <v>0.001568</v>
       </c>
       <c r="E48" t="n">
-        <v>0.068992</v>
+        <v>0.103488</v>
       </c>
       <c r="F48" t="n">
         <v>0.006272</v>
@@ -12950,7 +12950,7 @@
         <v>0.008307999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>0.24924</v>
+        <v>0.365552</v>
       </c>
       <c r="F49" t="n">
         <v>0.033232</v>
@@ -12984,7 +12984,7 @@
         <v>0.001792</v>
       </c>
       <c r="E50" t="n">
-        <v>0.16128</v>
+        <v>0.301056</v>
       </c>
       <c r="F50" t="n">
         <v>0.007168000000000001</v>
@@ -13018,7 +13018,7 @@
         <v>1.529468</v>
       </c>
       <c r="E51" t="n">
-        <v>27.530424</v>
+        <v>39.766168</v>
       </c>
       <c r="F51" t="n">
         <v>6.117872</v>
@@ -13052,7 +13052,7 @@
         <v>1.260296</v>
       </c>
       <c r="E52" t="n">
-        <v>10.082368</v>
+        <v>15.123552</v>
       </c>
       <c r="F52" t="n">
         <v>5.041184</v>
@@ -13086,7 +13086,7 @@
         <v>0.010844</v>
       </c>
       <c r="E53" t="n">
-        <v>0.281944</v>
+        <v>0.412072</v>
       </c>
       <c r="F53" t="n">
         <v>0.043376</v>
@@ -13120,7 +13120,7 @@
         <v>0.001604</v>
       </c>
       <c r="E54" t="n">
-        <v>0.041704</v>
+        <v>0.060952</v>
       </c>
       <c r="F54" t="n">
         <v>0.006416</v>
@@ -13154,7 +13154,7 @@
         <v>0.8662080000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>15.591744</v>
+        <v>31.183488</v>
       </c>
       <c r="F55" t="n">
         <v>3.464832</v>
@@ -13188,7 +13188,7 @@
         <v>0.001748</v>
       </c>
       <c r="E56" t="n">
-        <v>0.024472</v>
+        <v>0.05593600000000001</v>
       </c>
       <c r="F56" t="n">
         <v>0.006992000000000001</v>
@@ -13222,7 +13222,7 @@
         <v>0.581808</v>
       </c>
       <c r="E57" t="n">
-        <v>11.63616</v>
+        <v>37.235712</v>
       </c>
       <c r="F57" t="n">
         <v>2.327232</v>
@@ -13256,7 +13256,7 @@
         <v>0.001996</v>
       </c>
       <c r="E58" t="n">
-        <v>0.011976</v>
+        <v>0.06387200000000001</v>
       </c>
       <c r="F58" t="n">
         <v>0.007984000000000002</v>
@@ -13290,7 +13290,7 @@
         <v>0.010092</v>
       </c>
       <c r="E59" t="n">
-        <v>0.20184</v>
+        <v>0.645888</v>
       </c>
       <c r="F59" t="n">
         <v>0.040368</v>
@@ -13319,7 +13319,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG4"/>
+  <dimension ref="A1:BG6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13624,43 +13624,43 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5</v>
-      </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>3</v>
       </c>
-      <c r="J2" t="n">
-        <v>7</v>
-      </c>
-      <c r="K2" t="n">
-        <v>8</v>
-      </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -13803,43 +13803,43 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>8</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -13985,41 +13985,41 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>5</v>
       </c>
       <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6</v>
+      </c>
+      <c r="N4" t="n">
         <v>3</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
@@ -14153,6 +14153,364 @@
         <v>0</v>
       </c>
       <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10</v>
+      </c>
+      <c r="N5" t="n">
+        <v>14</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14167,7 +14525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG4"/>
+  <dimension ref="A1:BG6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14472,43 +14830,43 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.5</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.625</v>
-      </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0.25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.375</v>
       </c>
-      <c r="J2" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M2" t="n">
-        <v>0.625</v>
+        <v>0.25</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -14651,43 +15009,43 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.6875</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.3125</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.3125</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.9375</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.125</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.5625</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -14833,41 +15191,41 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.21875</v>
       </c>
       <c r="D4" t="n">
-        <v>1.53125</v>
+        <v>1.3125</v>
       </c>
       <c r="E4" t="n">
-        <v>0.65625</v>
+        <v>1.75</v>
       </c>
       <c r="F4" t="n">
-        <v>1.53125</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.09375</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.875</v>
-      </c>
       <c r="I4" t="n">
-        <v>1.96875</v>
+        <v>1.09375</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>1.09375</v>
       </c>
       <c r="L4" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.3125</v>
+      </c>
+      <c r="N4" t="n">
         <v>0.65625</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
@@ -15001,6 +15359,364 @@
         <v>0</v>
       </c>
       <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.640625</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.234375</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.34375</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.28125</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7265625</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.453125</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.453125</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.421875</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.2109375</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.453125</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15033,7 +15749,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3">
@@ -15041,7 +15757,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>55294</v>
+        <v>10150</v>
       </c>
     </row>
   </sheetData>
@@ -15078,7 +15794,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -15091,7 +15807,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -15104,7 +15820,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -15117,7 +15833,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -15130,7 +15846,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -15143,7 +15859,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -15156,7 +15872,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -15169,7 +15885,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -15182,7 +15898,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -15195,7 +15911,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -15208,7 +15924,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -15221,7 +15937,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -15234,7 +15950,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -15250,7 +15966,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -15263,7 +15979,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -15276,7 +15992,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -15289,7 +16005,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -15302,7 +16018,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -15315,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -15328,7 +16044,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -15341,7 +16057,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -15354,7 +16070,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -15367,7 +16083,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -15380,7 +16096,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -15393,7 +16109,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -15406,7 +16122,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -15419,7 +16135,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -15432,7 +16148,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -15445,7 +16161,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -15458,7 +16174,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -15471,7 +16187,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -15484,7 +16200,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -15497,7 +16213,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -15510,7 +16226,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -15523,7 +16239,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -15536,7 +16252,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -15549,7 +16265,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>122</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -15562,7 +16278,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -15575,7 +16291,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -15588,7 +16304,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -15601,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -15614,7 +16330,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -15627,7 +16343,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -15640,7 +16356,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -15653,7 +16369,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -15666,7 +16382,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -15679,7 +16395,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -15692,7 +16408,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -15705,7 +16421,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -15718,7 +16434,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -15731,7 +16447,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -15744,7 +16460,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -15757,7 +16473,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -15770,7 +16486,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -15783,7 +16499,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -15796,7 +16512,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -15809,7 +16525,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -15822,7 +16538,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
